--- a/data/店家名單.xlsx
+++ b/data/店家名單.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Desktop/AI GOOD競賽/linebot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21B3257-44DD-8047-A019-C3822DB1CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BD2B1C-B5A2-9943-B7E9-539B5894AC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="15720" xr2:uid="{58DE193C-B172-D64B-ADA5-2C0B97769039}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>鍋宴股份有限公司</t>
   </si>
@@ -132,13 +132,73 @@
   </si>
   <si>
     <t>艾迪墨西哥餐廳有限公司</t>
+  </si>
+  <si>
+    <t>月臆國際有限公司</t>
+  </si>
+  <si>
+    <t>秀翔豆乳坊</t>
+  </si>
+  <si>
+    <t>以新有限公司</t>
+  </si>
+  <si>
+    <t>彩宸生活事業股份有限公司天母門市</t>
+  </si>
+  <si>
+    <t>天仁茶業股份有限公司天母分公司</t>
+  </si>
+  <si>
+    <t>瑞記海南雞飯有限公司天母營業處</t>
+  </si>
+  <si>
+    <t>樂粄米好食股份有限公司天母門市</t>
+  </si>
+  <si>
+    <t>飲果樂茶飲專賣店</t>
+  </si>
+  <si>
+    <t>路易莎職人咖啡股份有限公司天母米蘭分公司</t>
+  </si>
+  <si>
+    <t>五花馬國際行銷股份有限公司台北天母分公司</t>
+  </si>
+  <si>
+    <t>初芽餐飲有限公司</t>
+  </si>
+  <si>
+    <t>茉盛有限公司</t>
+  </si>
+  <si>
+    <t>汎悅有限公司</t>
+  </si>
+  <si>
+    <t>三商餐飲股份有限公司天母分公司</t>
+  </si>
+  <si>
+    <t>小也茶行</t>
+  </si>
+  <si>
+    <t>好甘田有限公司</t>
+  </si>
+  <si>
+    <t>美而堅實業有限公司天母分公司</t>
+  </si>
+  <si>
+    <t>莎諾小吃店</t>
+  </si>
+  <si>
+    <t>豆字號有限公司天母店</t>
+  </si>
+  <si>
+    <t>喜想生機企業社</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +213,18 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,8 +249,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9BC156-6D61-7542-AEC9-A32E96292EB6}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -509,162 +587,263 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16">
+      <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="40" spans="1:1" ht="16">
+      <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="41" spans="1:1" ht="16">
+      <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="42" spans="1:1" ht="16">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="43" spans="1:1" ht="16">
+      <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="44" spans="1:1" ht="16">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="45" spans="1:1" ht="16">
+      <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="46" spans="1:1" ht="16">
+      <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="47" spans="1:1" ht="16">
+      <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="48" spans="1:1" ht="16">
+      <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="49" spans="1:1" ht="16">
+      <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="50" spans="1:1" ht="16">
+      <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="51" spans="1:1" ht="16">
+      <c r="A51" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="52" spans="1:1" ht="16">
+      <c r="A52" s="2" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>